--- a/TimeVisual/data/gatte-test.xlsx
+++ b/TimeVisual/data/gatte-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB8C0DE-66DF-4AED-9E3B-F99EBB010777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478C27B-4B84-4310-85B7-00384A66D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1905" windowWidth="15165" windowHeight="11235" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10050" yWindow="1560" windowWidth="15165" windowHeight="11235" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="305">
   <si>
     <t>起始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,6 +1256,10 @@
   </si>
   <si>
     <t>data-code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual-code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15889,7 +15893,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15928,7 +15932,7 @@
         <v>302</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D38" si="0">INT(ABS(B2-A2)*1440)</f>
+        <f t="shared" ref="D2:D12" si="0">INT(ABS(B2-A2)*1440)</f>
         <v>39</v>
       </c>
     </row>
@@ -15966,40 +15970,129 @@
       <c r="A5" s="5">
         <v>44410.59375</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>44410.627083333333</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5">
+        <v>44410.63958333333</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44410.65625</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="5">
+        <v>44410.660416666666</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44410.679861111108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5">
+        <v>44410.688194444447</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44410.729166666664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="5">
+        <v>44410.881944444445</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44410.920138888891</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="5">
+        <v>44410.925000000003</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44410.943055555559</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="5">
+        <v>44410.95</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44410.976388888892</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="5">
+        <v>44411.356944444444</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44411.363194444442</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>44411.371527777781</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>

--- a/TimeVisual/data/gatte-test.xlsx
+++ b/TimeVisual/data/gatte-test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\HouseMonitor\TimeVisual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478C27B-4B84-4310-85B7-00384A66D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B76EC-68B4-4E3D-A41B-9130F600C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="1560" windowWidth="15165" windowHeight="11235" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="2385" windowWidth="15165" windowHeight="11235" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="305">
   <si>
     <t>起始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15892,8 +15892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3960110-7FC6-4E68-91D9-AB531B7B97CB}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15932,7 +15932,7 @@
         <v>302</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D12" si="0">INT(ABS(B2-A2)*1440)</f>
+        <f t="shared" ref="D2:D30" si="0">INT(ABS(B2-A2)*1440)</f>
         <v>39</v>
       </c>
     </row>
@@ -16093,101 +16093,296 @@
       <c r="A13" s="5">
         <v>44411.371527777781</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="5">
+        <v>44411.415277777778</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="5">
+        <v>44411.415277777778</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44411.453472222223</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="5">
+        <v>44411.467361111114</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44411.487500000003</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="5">
+        <v>44411.487500000003</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44411.507638888892</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>44411.606249999997</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44411.640277777777</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>44411.645833333336</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44411.681250000001</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>44411.690972222219</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44411.71597222222</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>44411.71875</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44411.73333333333</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>44412.65347222222</v>
+      </c>
+      <c r="B21" s="5">
+        <v>44412.691666666666</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>44412.780555555553</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44412.804861111108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>44412.878472222219</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44412.918749999997</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>44412.945138888892</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44412.918749999997</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>44413.374305555553</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44413.40347222222</v>
+      </c>
+      <c r="C25" s="1">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>44413.413888888892</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44413.418055555558</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>44413.418055555558</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44413.493055555555</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>44413.593055555553</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44413.629166666666</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>44413.632638888892</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44413.688194444447</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>44413.688888888886</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44413.730555555558</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -16494,7 +16689,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D29 D31:D1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2BBC61A5-61CA-464D-B1C2-E455810B4A60}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -16503,7 +16712,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2BBC61A5-61CA-464D-B1C2-E455810B4A60}</x14:id>
+          <x14:id>{BBC2D5A6-4C66-4F83-A50F-AB057BF00DBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16524,7 +16733,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1:D29 D31:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BBC2D5A6-4C66-4F83-A50F-AB057BF00DBD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
